--- a/src/models/baselines/SVM/results/synthetic/position-topology/metrics.xlsx
+++ b/src/models/baselines/SVM/results/synthetic/position-topology/metrics.xlsx
@@ -456,13 +456,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="D2" t="n">
-        <v>0.714521208040454</v>
+        <v>0.7389363277030205</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>0.59</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7055211524968006</v>
+        <v>0.7123448036645209</v>
       </c>
     </row>
     <row r="4">
@@ -484,13 +484,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="C4" t="n">
-        <v>0.595</v>
+        <v>0.59</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7005525459963794</v>
+        <v>0.7046344377451997</v>
       </c>
     </row>
     <row r="5">
@@ -498,13 +498,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7073691125144386</v>
+        <v>0.7470794240236502</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +518,7 @@
         <v>0.575</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6829401069385358</v>
+        <v>0.6959784127890961</v>
       </c>
     </row>
     <row r="7">
@@ -526,13 +526,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="C7" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7127185897806479</v>
+        <v>0.7109394925577172</v>
       </c>
     </row>
     <row r="8">
@@ -540,13 +540,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.62</v>
+        <v>0.625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7157261652548378</v>
+        <v>0.721086977960505</v>
       </c>
     </row>
     <row r="9">
@@ -554,13 +554,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7441129395174957</v>
+        <v>0.7466571789038404</v>
       </c>
     </row>
     <row r="10">
@@ -568,13 +568,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.615</v>
+        <v>0.63</v>
       </c>
       <c r="C10" t="n">
-        <v>0.615</v>
+        <v>0.63</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7296766905957793</v>
+        <v>0.722718714470482</v>
       </c>
     </row>
     <row r="11">
@@ -588,7 +588,7 @@
         <v>0.63</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7428464875440524</v>
+        <v>0.7492430760301931</v>
       </c>
     </row>
   </sheetData>
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.599</v>
+        <v>0.6054999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.599</v>
+        <v>0.6054999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7155984998679421</v>
+        <v>0.7249618845848225</v>
       </c>
     </row>
     <row r="3">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02131770260709266</v>
+        <v>0.0184767120692208</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02131770260709266</v>
+        <v>0.0184767120692208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01893092530528254</v>
+        <v>0.01936160094350291</v>
       </c>
     </row>
   </sheetData>
